--- a/Metricas.xlsx
+++ b/Metricas.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/castillo/ATS/Practica/BigData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0069094-67EF-1241-85C6-B668D4AECC7C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{522EEE84-3A64-5D4D-A7A6-41DF4936E69B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="460" windowWidth="32880" windowHeight="20540" xr2:uid="{F6DBAD19-278F-3745-90B5-20B824FBCE4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>BufferFile</t>
   </si>
@@ -39,52 +39,85 @@
     <t>Ficheros</t>
   </si>
   <si>
-    <t>38 MB</t>
-  </si>
-  <si>
     <t>900 B</t>
   </si>
   <si>
-    <t>77 MB</t>
-  </si>
-  <si>
     <t>NoBufferFIle</t>
   </si>
   <si>
     <t>Tiempos 900 B</t>
   </si>
   <si>
-    <t>Tiempos 38 MB</t>
-  </si>
-  <si>
-    <t>Tiempos 77 MB</t>
-  </si>
-  <si>
-    <t>Tiempos 154 MB</t>
-  </si>
-  <si>
-    <t>153 MB</t>
-  </si>
-  <si>
     <t>NO BUFFERFILE</t>
   </si>
   <si>
     <t>BUFFERFILE</t>
   </si>
   <si>
-    <t>TIEMPOS 38 MB</t>
-  </si>
-  <si>
-    <t>TIEMPOS 77 MB</t>
-  </si>
-  <si>
-    <t>TIEMPOS 154 MB</t>
+    <t>Tiempos 500 KB</t>
+  </si>
+  <si>
+    <t>TIEMPOS 5 KB</t>
+  </si>
+  <si>
+    <t>5 KB</t>
+  </si>
+  <si>
+    <t>500 KB</t>
+  </si>
+  <si>
+    <t>Tiempos 5 MB</t>
+  </si>
+  <si>
+    <t>TIEMPOS 10 MB</t>
+  </si>
+  <si>
+    <t>TIEMPOS 20 MB</t>
+  </si>
+  <si>
+    <t>TIEMPOS 100 MB</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Sample2</t>
+  </si>
+  <si>
+    <t>Sample3</t>
+  </si>
+  <si>
+    <t>Sample4</t>
+  </si>
+  <si>
+    <t>Sample5</t>
+  </si>
+  <si>
+    <t>Sample6</t>
+  </si>
+  <si>
+    <t>Sample7</t>
+  </si>
+  <si>
+    <t>5 MB</t>
+  </si>
+  <si>
+    <t>10 MB</t>
+  </si>
+  <si>
+    <t>20 MB</t>
+  </si>
+  <si>
+    <t>100 MB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -114,10 +147,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -126,9 +162,11 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -154,12 +192,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A080FEFA-4321-8348-9160-83C1BA3358CD}" name="Tabla1" displayName="Tabla1" ref="B8:D12" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="B8:D12" xr:uid="{AA7B5AAB-260A-D240-8A03-5E4C5BA15402}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A080FEFA-4321-8348-9160-83C1BA3358CD}" name="Tabla1" displayName="Tabla1" ref="B8:D15" totalsRowShown="0" headerRowDxfId="4" dataDxfId="2">
+  <autoFilter ref="B8:D15" xr:uid="{AA7B5AAB-260A-D240-8A03-5E4C5BA15402}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EC2AF6F5-0D97-A442-9255-539F3C4D15D0}" name="Ficheros" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{C057E112-5963-F447-9656-4985090009C8}" name="NoBufferFIle" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{567D2C6F-3191-4A4F-9725-8CBA1E0A4A76}" name="BufferFile" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{EC2AF6F5-0D97-A442-9255-539F3C4D15D0}" name="Ficheros" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{C057E112-5963-F447-9656-4985090009C8}" name="NoBufferFIle" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{567D2C6F-3191-4A4F-9725-8CBA1E0A4A76}" name="BufferFile" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -462,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519361BC-A214-6B4B-9583-6858A8A58973}">
-  <dimension ref="B6:E35"/>
+  <dimension ref="B6:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,6 +512,10 @@
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
@@ -485,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>0</v>
@@ -493,271 +535,569 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>1.5E-3</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4.66</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2.96</v>
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="D11" s="2">
-        <v>6.28</v>
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.1128</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2">
-        <v>21.36</v>
-      </c>
-      <c r="D12" s="2">
-        <v>14.11</v>
+        <v>22</v>
+      </c>
+      <c r="C12" s="3">
+        <f>F26</f>
+        <v>0.77220000000000011</v>
+      </c>
+      <c r="D12" s="3">
+        <f>F35</f>
+        <v>0.51076666666666659</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3">
+        <f>G26</f>
+        <v>1.5504666666666667</v>
+      </c>
+      <c r="D13" s="3">
+        <f>G35</f>
+        <v>1.0309666666666664</v>
+      </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3">
+        <f>H26</f>
+        <v>3.170666666666667</v>
+      </c>
+      <c r="D14" s="3">
+        <f>H35</f>
+        <v>1.9115666666666666</v>
+      </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3">
+        <f>I26</f>
+        <v>16.203773333333331</v>
+      </c>
+      <c r="D15" s="3">
+        <f>I35</f>
+        <v>10.099266666666667</v>
+      </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="2">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2">
         <v>1E-3</v>
       </c>
-      <c r="C22" s="2">
-        <v>4.6500000000000004</v>
-      </c>
       <c r="D22" s="2">
-        <v>9.69</v>
+        <v>0.02</v>
       </c>
       <c r="E22" s="2">
-        <v>22.27</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="2">
+        <v>0.13439999999999999</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.78420000000000001</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="H22" s="2">
+        <v>3.2928999999999999</v>
+      </c>
+      <c r="I22" s="2">
+        <v>16.8599</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="C23" s="2">
-        <v>4.63</v>
-      </c>
       <c r="D23" s="2">
-        <v>8.84</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="E23" s="2">
-        <v>21.78</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="2">
+        <v>0.1018</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1.544</v>
+      </c>
+      <c r="H23" s="2">
+        <v>3.0684999999999998</v>
+      </c>
+      <c r="I23" s="2">
+        <v>15.965299999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2">
         <v>2E-3</v>
       </c>
-      <c r="C24" s="2">
-        <v>4.6900000000000004</v>
-      </c>
       <c r="D24" s="2">
-        <v>9.33</v>
+        <v>3.8E-3</v>
       </c>
       <c r="E24" s="2">
-        <v>20.04</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+        <v>0.1022</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.76049999999999995</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.5624</v>
+      </c>
+      <c r="H24" s="2">
+        <v>3.1505999999999998</v>
+      </c>
+      <c r="I24" s="2">
+        <v>15.78612</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="2">
-        <f>SUM(B22:B24)/3</f>
-        <v>1.5333333333333334E-3</v>
-      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
       <c r="C26" s="2">
         <f>SUM(C22:C24)/3</f>
-        <v>4.6566666666666672</v>
+        <v>1.5333333333333334E-3</v>
       </c>
       <c r="D26" s="2">
         <f>SUM(D22:D24)/3</f>
-        <v>9.2866666666666671</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="E26" s="2">
         <f>SUM(E22:E24)/3</f>
-        <v>21.363333333333333</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+        <v>0.1128</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" ref="F26:I26" si="0">SUM(F22:F24)/3</f>
+        <v>0.77220000000000011</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5504666666666667</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="0"/>
+        <v>3.170666666666667</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="0"/>
+        <v>16.203773333333331</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="2">
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2">
         <v>1.5E-3</v>
       </c>
-      <c r="C31" s="2">
-        <v>2.99</v>
-      </c>
       <c r="D31" s="2">
-        <v>6.33</v>
+        <v>1.5E-3</v>
       </c>
       <c r="E31" s="2">
-        <v>14.47</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="2">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.51890000000000003</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="I31" s="2">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2">
         <v>1.8E-3</v>
       </c>
-      <c r="C32" s="2">
-        <v>2.95</v>
-      </c>
       <c r="D32" s="2">
-        <v>6.52</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="E32" s="2">
-        <v>14.11</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.49980000000000002</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1.8640000000000001</v>
+      </c>
+      <c r="I32" s="2">
+        <v>9.6655999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2">
         <v>1.2899999999999999E-3</v>
       </c>
-      <c r="C33" s="2">
-        <v>2.96</v>
-      </c>
       <c r="D33" s="2">
-        <v>5.99</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="E33" s="2">
-        <v>13.75</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.51359999999999995</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1.0408999999999999</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1.8656999999999999</v>
+      </c>
+      <c r="I33" s="2">
+        <v>9.6821999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="2">
-        <f>SUM(B31:B33)/3</f>
-        <v>1.5300000000000001E-3</v>
-      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
       <c r="C35" s="2">
         <f>SUM(C31:C33)/3</f>
-        <v>2.9666666666666668</v>
+        <v>1.5300000000000001E-3</v>
       </c>
       <c r="D35" s="2">
         <f>SUM(D31:D33)/3</f>
-        <v>6.28</v>
+        <v>1.8000000000000002E-3</v>
       </c>
       <c r="E35" s="2">
         <f>SUM(E31:E33)/3</f>
-        <v>14.11</v>
-      </c>
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" ref="F35:I35" si="1">SUM(F31:F33)/3</f>
+        <v>0.51076666666666659</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0309666666666664</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9115666666666666</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="1"/>
+        <v>10.099266666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Metricas.xlsx
+++ b/Metricas.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/castillo/ATS/Practica/BigData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanlopez/Documents/GitHub/MapReduce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{522EEE84-3A64-5D4D-A7A6-41DF4936E69B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="460" windowWidth="32880" windowHeight="20540" xr2:uid="{F6DBAD19-278F-3745-90B5-20B824FBCE4A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="BufferFile BuffSize" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="14" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,15 +40,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>BufferFile</t>
   </si>
   <si>
     <t>Ficheros</t>
-  </si>
-  <si>
-    <t>900 B</t>
   </si>
   <si>
     <t>NoBufferFIle</t>
@@ -58,12 +64,6 @@
   </si>
   <si>
     <t>TIEMPOS 5 KB</t>
-  </si>
-  <si>
-    <t>5 KB</t>
-  </si>
-  <si>
-    <t>500 KB</t>
   </si>
   <si>
     <t>Tiempos 5 MB</t>
@@ -110,18 +110,92 @@
   <si>
     <t>100 MB</t>
   </si>
+  <si>
+    <t>File: 38MB</t>
+  </si>
+  <si>
+    <t>1KB</t>
+  </si>
+  <si>
+    <t>5KB</t>
+  </si>
+  <si>
+    <t>500KB</t>
+  </si>
+  <si>
+    <t>1MB</t>
+  </si>
+  <si>
+    <t>2MB</t>
+  </si>
+  <si>
+    <t>5MB</t>
+  </si>
+  <si>
+    <t>10MB</t>
+  </si>
+  <si>
+    <t>20MB</t>
+  </si>
+  <si>
+    <t>50MB</t>
+  </si>
+  <si>
+    <t>10KB</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Bytes</t>
+  </si>
+  <si>
+    <t>Seconds</t>
+  </si>
+  <si>
+    <t>Suma de Seconds</t>
+  </si>
+  <si>
+    <t>500B</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,10 +218,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -156,8 +234,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -191,13 +279,3699 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl"/>
+              <a:t>Comparativa</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl" baseline="0"/>
+              <a:t> de Versions</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NoBufferFIle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES_tradnl"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$B$9:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5 MB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 MB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20 MB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.7722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.550466666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.170666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.20377333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BufferFile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES_tradnl"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$B$9:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5 MB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 MB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20 MB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$9:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.510766666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.030966666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.911566666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.09926666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="9"/>
+        <c:axId val="616065232"/>
+        <c:axId val="616484640"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="616065232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="616484640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="616484640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:t>Temps(segons)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES_tradnl"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="616065232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="13000">
+          <a:schemeClr val="accent3">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="84000">
+          <a:schemeClr val="accent3">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="83000">
+          <a:schemeClr val="accent3">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="accent3">
+            <a:lumMod val="30000"/>
+            <a:lumOff val="70000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES_tradnl"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl" b="1"/>
+              <a:t>Comparativa tamany Buffer</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="84000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="20000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES_tradnl"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BufferFile BuffSize'!$B$21:$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>500B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5KB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10KB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500KB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1MB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2MB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5MB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10MB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20MB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BufferFile BuffSize'!$C$21:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="10"/>
+        <c:axId val="632433504"/>
+        <c:axId val="632772064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="632433504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:t>Tamany Buffer (Bytes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES_tradnl"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632772064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="632772064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:t>Temps (segons)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES_tradnl"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="632433504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="13000">
+          <a:schemeClr val="accent3">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="84000">
+          <a:schemeClr val="accent3">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="83000">
+          <a:schemeClr val="accent3">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="accent3">
+            <a:lumMod val="30000"/>
+            <a:lumOff val="70000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES_tradnl"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES_tradnl"/>
+              <a:t>Comparativa tamany Buffer</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES_tradnl"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="84000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="20000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES_tradnl"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BufferFile BuffSize'!$B$21:$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>500B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5KB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10KB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500KB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1MB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2MB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5MB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10MB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20MB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BufferFile BuffSize'!$C$21:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="41"/>
+        <c:axId val="632053968"/>
+        <c:axId val="633137024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="632053968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:t>Tamany Buffer (Bytes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES_tradnl"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES_tradnl"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633137024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="633137024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES_tradnl"/>
+                  <a:t>Temps (segons)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES_tradnl"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="632053968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="68000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES_tradnl"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="204">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200">
+      <a:effectLst/>
+    </cs:defRPr>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="68000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="84000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr kern="1200">
+      <a:effectLst/>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="204">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200">
+      <a:effectLst/>
+    </cs:defRPr>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="68000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="84000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr kern="1200">
+      <a:effectLst/>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>916609</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1402522</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>46382</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>916609</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>143566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>48287</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>108042</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>814103</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="26" name="Gráfico 25"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ivan López Medina" refreshedDate="43526.642371296293" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="11">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B7:C18" sheet="BufferFile BuffSize"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Bytes" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="500" maxValue="50000000" count="11">
+        <n v="500"/>
+        <n v="1000"/>
+        <n v="5000"/>
+        <n v="10000"/>
+        <n v="500000"/>
+        <n v="1000000"/>
+        <n v="2000000"/>
+        <n v="5000000"/>
+        <n v="10000000"/>
+        <n v="20000000"/>
+        <n v="50000000"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Seconds" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.71" maxValue="8.25" count="10">
+        <n v="8.25"/>
+        <n v="6.27"/>
+        <n v="5.5"/>
+        <n v="5.07"/>
+        <n v="3.86"/>
+        <n v="3.72"/>
+        <n v="3.74"/>
+        <n v="3.71"/>
+        <n v="3.76"/>
+        <n v="3.8"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="11">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="9"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica4" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B20:C32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item n="500B" x="0"/>
+        <item n="1KB" x="1"/>
+        <item n="5KB" x="2"/>
+        <item n="10KB" x="3"/>
+        <item n="500KB" x="4"/>
+        <item n="1MB" x="5"/>
+        <item n="2MB" x="6"/>
+        <item n="5MB" x="7"/>
+        <item n="10MB" x="8"/>
+        <item n="20MB" x="9"/>
+        <item n="50MB" x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="11">
+        <item x="7"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Seconds" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A080FEFA-4321-8348-9160-83C1BA3358CD}" name="Tabla1" displayName="Tabla1" ref="B8:D15" totalsRowShown="0" headerRowDxfId="4" dataDxfId="2">
-  <autoFilter ref="B8:D15" xr:uid="{AA7B5AAB-260A-D240-8A03-5E4C5BA15402}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B8:D15" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="B8:D15"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EC2AF6F5-0D97-A442-9255-539F3C4D15D0}" name="Ficheros" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{C057E112-5963-F447-9656-4985090009C8}" name="NoBufferFIle" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{567D2C6F-3191-4A4F-9725-8CBA1E0A4A76}" name="BufferFile" dataDxfId="0"/>
+    <tableColumn id="1" name="Ficheros" dataDxfId="2"/>
+    <tableColumn id="2" name="NoBufferFIle" dataDxfId="1"/>
+    <tableColumn id="3" name="BufferFile" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -499,11 +4273,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519361BC-A214-6B4B-9583-6858A8A58973}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>0</v>
@@ -535,35 +4309,41 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3">
-        <v>1.5E-3</v>
+        <f>F26</f>
+        <v>0.77220000000000011</v>
       </c>
       <c r="D9" s="3">
-        <v>1.5E-3</v>
+        <f>F35</f>
+        <v>0.51076666666666659</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3">
-        <v>8.5000000000000006E-2</v>
+        <f>G26</f>
+        <v>1.5504666666666667</v>
       </c>
       <c r="D10" s="3">
-        <v>1.8E-3</v>
+        <f>G35</f>
+        <v>1.0309666666666664</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3">
-        <v>0.1128</v>
+        <f>H26</f>
+        <v>3.170666666666667</v>
       </c>
       <c r="D11" s="3">
-        <v>7.9000000000000001E-2</v>
+        <f>H35</f>
+        <v>1.9115666666666666</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
@@ -571,52 +4351,28 @@
         <v>22</v>
       </c>
       <c r="C12" s="3">
-        <f>F26</f>
-        <v>0.77220000000000011</v>
-      </c>
-      <c r="D12" s="3">
-        <f>F35</f>
-        <v>0.51076666666666659</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="3">
-        <f>G26</f>
-        <v>1.5504666666666667</v>
-      </c>
-      <c r="D13" s="3">
-        <f>G35</f>
-        <v>1.0309666666666664</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="3">
-        <f>H26</f>
-        <v>3.170666666666667</v>
-      </c>
-      <c r="D14" s="3">
-        <f>H35</f>
-        <v>1.9115666666666666</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="3">
         <f>I26</f>
         <v>16.203773333333331</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D12" s="3">
         <f>I35</f>
         <v>10.099266666666667</v>
       </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
@@ -636,51 +4392,51 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
@@ -819,51 +4575,51 @@
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
@@ -1101,8 +4857,251 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:E33"/>
+  <sheetViews>
+    <sheetView topLeftCell="D5" zoomScale="156" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>500</v>
+      </c>
+      <c r="C8">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>5000</v>
+      </c>
+      <c r="C10">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>10000</v>
+      </c>
+      <c r="C11">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>500000</v>
+      </c>
+      <c r="C12">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>1000000</v>
+      </c>
+      <c r="C13">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>2000000</v>
+      </c>
+      <c r="C14">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>5000000</v>
+      </c>
+      <c r="C15">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>10000000</v>
+      </c>
+      <c r="C16">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>20000000</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>50000000</v>
+      </c>
+      <c r="C18">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="6">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="6">
+        <v>6.27</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="6">
+        <v>5.07</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="6">
+        <v>3.86</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="6">
+        <v>3.72</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="6">
+        <v>3.74</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="6">
+        <v>3.71</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="6">
+        <v>3.86</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="6">
+        <v>3.76</v>
+      </c>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="6">
+        <v>51.54</v>
+      </c>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>